--- a/data/trans_orig/CoPsoQ-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>51023</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40204</v>
+        <v>38780</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62004</v>
+        <v>61892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4185633492054145</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3298073716732809</v>
+        <v>0.3181294683448658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.508645771673031</v>
+        <v>0.507724119756281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -764,19 +764,19 @@
         <v>35076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26081</v>
+        <v>25113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44787</v>
+        <v>44649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.42179987888163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3136269452800108</v>
+        <v>0.3019885799186641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5385780654588698</v>
+        <v>0.5369171824433133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -785,19 +785,19 @@
         <v>86099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70841</v>
+        <v>72340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100283</v>
+        <v>100672</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4198758672005649</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3454676333119954</v>
+        <v>0.3527761243285977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4890464569694952</v>
+        <v>0.4909443131710887</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>25692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17152</v>
+        <v>17305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35113</v>
+        <v>35055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2107614868322454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.140709190914495</v>
+        <v>0.1419575527400385</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2880474282690122</v>
+        <v>0.2875748868251928</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -835,19 +835,19 @@
         <v>16534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10438</v>
+        <v>10325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25454</v>
+        <v>26213</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1988263598358114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1255189921429383</v>
+        <v>0.1241661621911204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3060930909173609</v>
+        <v>0.3152223140965358</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -856,19 +856,19 @@
         <v>42226</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32025</v>
+        <v>31022</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56001</v>
+        <v>53992</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2059214048542109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1561734878274272</v>
+        <v>0.1512858784512548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2730989719112769</v>
+        <v>0.2632994321193187</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>45185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35320</v>
+        <v>34857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57668</v>
+        <v>56282</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3706751639623401</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2897453243579799</v>
+        <v>0.2859436498603857</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4730732906237153</v>
+        <v>0.4617039622902178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -906,19 +906,19 @@
         <v>31548</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22893</v>
+        <v>22599</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41190</v>
+        <v>42512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3793737612825586</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2752987725649117</v>
+        <v>0.2717642231521822</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4953231471418963</v>
+        <v>0.5112241374976902</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -927,19 +927,19 @@
         <v>76733</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61206</v>
+        <v>62176</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>89720</v>
+        <v>90918</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3742027279452242</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2984813020670189</v>
+        <v>0.3032107023294232</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4375351835548997</v>
+        <v>0.4433766419582029</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>105844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91622</v>
+        <v>92155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119321</v>
+        <v>119397</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6179720826952422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5349379502781895</v>
+        <v>0.5380520691051888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6966583970957474</v>
+        <v>0.6971057321848692</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -1052,19 +1052,19 @@
         <v>69697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57906</v>
+        <v>57086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80991</v>
+        <v>79955</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5778579385670056</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4801008271155734</v>
+        <v>0.4732972399598099</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.671498153714019</v>
+        <v>0.6629049127057155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>162</v>
@@ -1073,19 +1073,19 @@
         <v>175541</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>158531</v>
+        <v>157759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>193692</v>
+        <v>191703</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6013963132589146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5431213238878235</v>
+        <v>0.5404746578051399</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6635816864033783</v>
+        <v>0.6567670291193686</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>30090</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20733</v>
+        <v>20499</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>42230</v>
+        <v>42044</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1756787570158659</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1210486706446584</v>
+        <v>0.1196858420088911</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2465594588123138</v>
+        <v>0.2454758356357361</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1123,19 +1123,19 @@
         <v>24266</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15882</v>
+        <v>16517</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35202</v>
+        <v>34839</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2011854660402425</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1316783360592606</v>
+        <v>0.1369447657800677</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2918592310340614</v>
+        <v>0.2888483746018677</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>49</v>
@@ -1144,19 +1144,19 @@
         <v>54355</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>41021</v>
+        <v>42013</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68591</v>
+        <v>69648</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1862185139284397</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1405365036043421</v>
+        <v>0.1439346403524775</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2349916332809641</v>
+        <v>0.2386109577763785</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>35343</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24956</v>
+        <v>24626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47696</v>
+        <v>47547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2063491602888919</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1457077232124406</v>
+        <v>0.1437794387983097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2784735221589248</v>
+        <v>0.2776061886766401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1194,19 +1194,19 @@
         <v>26650</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18158</v>
+        <v>17920</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36740</v>
+        <v>36758</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2209565953927519</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1505488850524189</v>
+        <v>0.148572308087379</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3046127666730669</v>
+        <v>0.304761226345156</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1215,19 +1215,19 @@
         <v>61993</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49589</v>
+        <v>48171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80093</v>
+        <v>77615</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2123851728126457</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1698908928374326</v>
+        <v>0.1650331692082647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.274394621797735</v>
+        <v>0.2659045022752268</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>76046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64874</v>
+        <v>65023</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>87359</v>
+        <v>86366</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5660483467326329</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4828898893230677</v>
+        <v>0.4839976710496549</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6502596109395425</v>
+        <v>0.6428706210999326</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1340,19 +1340,19 @@
         <v>30657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22248</v>
+        <v>22514</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40062</v>
+        <v>39387</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3913436543374124</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2840002961182512</v>
+        <v>0.2873947296005483</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.511396567493432</v>
+        <v>0.5027814712176224</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>106</v>
@@ -1361,19 +1361,19 @@
         <v>106703</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>92247</v>
+        <v>92843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>122157</v>
+        <v>120978</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5016990904861544</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4337310523920532</v>
+        <v>0.4365301390921356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5743612378955196</v>
+        <v>0.5688196116223342</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>28177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19437</v>
+        <v>20098</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38105</v>
+        <v>37604</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2097354136079561</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1446776116855673</v>
+        <v>0.1496018525766003</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2836359434182147</v>
+        <v>0.279902693794724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1411,19 +1411,19 @@
         <v>24577</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16709</v>
+        <v>16591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33143</v>
+        <v>33475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3137250629442787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2132983835971407</v>
+        <v>0.211782344677133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4230767236178071</v>
+        <v>0.4273105294168988</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -1432,19 +1432,19 @@
         <v>52753</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40772</v>
+        <v>40338</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65215</v>
+        <v>65143</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2480380859654133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1917015840881449</v>
+        <v>0.1896607592894068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3066308947649108</v>
+        <v>0.306290258751246</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>30122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21066</v>
+        <v>21281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40694</v>
+        <v>39795</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.224216239659411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1568025092253972</v>
+        <v>0.1584076824951968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.302907005142591</v>
+        <v>0.2962177645761245</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1482,19 +1482,19 @@
         <v>23104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15424</v>
+        <v>15577</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31396</v>
+        <v>31731</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.294931282718309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1968876019183891</v>
+        <v>0.1988394550116969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4007792863916038</v>
+        <v>0.4050524628542768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -1503,19 +1503,19 @@
         <v>53227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42078</v>
+        <v>41766</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66847</v>
+        <v>66614</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2502628235484324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1978447434687941</v>
+        <v>0.1963748382991746</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.314305477014055</v>
+        <v>0.3132063232310583</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>80116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67549</v>
+        <v>67451</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91506</v>
+        <v>91007</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5656861545006607</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4769559051499939</v>
+        <v>0.4762594143695801</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6461079963694458</v>
+        <v>0.642590009310566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -1628,19 +1628,19 @@
         <v>50403</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40556</v>
+        <v>40499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60601</v>
+        <v>61591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5023920237575832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4042405751037813</v>
+        <v>0.4036725761744821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6040389997203374</v>
+        <v>0.6139044031165463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -1649,19 +1649,19 @@
         <v>130519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113939</v>
+        <v>116336</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146704</v>
+        <v>146834</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5394409148397598</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4709118035932863</v>
+        <v>0.4808221607744983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.606333241527895</v>
+        <v>0.6068691637921485</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>33872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24355</v>
+        <v>24292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45049</v>
+        <v>44600</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2391686298207578</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1719647928709539</v>
+        <v>0.171521648600224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3180829118785135</v>
+        <v>0.314916684462786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1699,19 +1699,19 @@
         <v>34885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25889</v>
+        <v>24919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44928</v>
+        <v>44307</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3477084544763406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.258050498317382</v>
+        <v>0.248379221483341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4478171924262386</v>
+        <v>0.4416302983456444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -1720,19 +1720,19 @@
         <v>68757</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53681</v>
+        <v>54706</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>82614</v>
+        <v>83113</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.284175231181651</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2218640352900153</v>
+        <v>0.2261004327698317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3414457814274217</v>
+        <v>0.3435108873941075</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>27638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19377</v>
+        <v>18810</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38665</v>
+        <v>38659</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1951452156785815</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.136819468940037</v>
+        <v>0.1328154414786138</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2730103757819927</v>
+        <v>0.2729659433538213</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1770,19 +1770,19 @@
         <v>15039</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8869</v>
+        <v>9046</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23787</v>
+        <v>24214</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1498995217660762</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08839739572262884</v>
+        <v>0.0901617580696617</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2370924996578239</v>
+        <v>0.241347527733462</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -1791,19 +1791,19 @@
         <v>42677</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31309</v>
+        <v>30780</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57129</v>
+        <v>56929</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1763838539785893</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1293995361357845</v>
+        <v>0.1272133423083743</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2361174212335179</v>
+        <v>0.2352883745318753</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>28125</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18948</v>
+        <v>19566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37454</v>
+        <v>37475</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3460115684377816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2331119849671701</v>
+        <v>0.2407147505000156</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.46079489576599</v>
+        <v>0.4610492468487272</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -1916,19 +1916,19 @@
         <v>25181</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17543</v>
+        <v>17737</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32689</v>
+        <v>32332</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4685115675036757</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3264120140496162</v>
+        <v>0.3300238435315238</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6082192038385519</v>
+        <v>0.6015611877436549</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -1937,19 +1937,19 @@
         <v>53305</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41391</v>
+        <v>41967</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>64096</v>
+        <v>65367</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3947712051918792</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3065398523563979</v>
+        <v>0.3108043425969867</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4746859216623942</v>
+        <v>0.4840978232290301</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>14510</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8079</v>
+        <v>8250</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23221</v>
+        <v>23162</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1785142404386953</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09939676282651079</v>
+        <v>0.1014960100218707</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2856815232761774</v>
+        <v>0.2849564113608594</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1987,19 +1987,19 @@
         <v>13833</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8453</v>
+        <v>7862</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20430</v>
+        <v>20852</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2573734043023843</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1572794327861805</v>
+        <v>0.1462825264083979</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3801199622145556</v>
+        <v>0.3879786348211237</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -2008,19 +2008,19 @@
         <v>28343</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19793</v>
+        <v>19543</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>39219</v>
+        <v>38618</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2099031727982539</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1465823108747578</v>
+        <v>0.1447356605078916</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2904495310913045</v>
+        <v>0.2860001270380902</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>38647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28820</v>
+        <v>29169</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48674</v>
+        <v>48518</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4754741911235231</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3545671957057336</v>
+        <v>0.3588677162035834</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5988288620107945</v>
+        <v>0.5969132608562832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2058,19 +2058,19 @@
         <v>14733</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8834</v>
+        <v>9014</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22630</v>
+        <v>22049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2741150281939401</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1643735296437223</v>
+        <v>0.1677218019746002</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4210539911356131</v>
+        <v>0.4102522566978178</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2079,19 +2079,19 @@
         <v>53380</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43010</v>
+        <v>41937</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66666</v>
+        <v>65990</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3953256220098669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3185281418704249</v>
+        <v>0.3105819782036615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4937219018767207</v>
+        <v>0.4887098302693243</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>66972</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54879</v>
+        <v>56384</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>77629</v>
+        <v>77992</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5845723432900102</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.479018511987413</v>
+        <v>0.4921563962053679</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6775944772092651</v>
+        <v>0.6807653635960719</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2204,19 +2204,19 @@
         <v>22529</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15580</v>
+        <v>15451</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29708</v>
+        <v>30385</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.407457722774749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2817785073834806</v>
+        <v>0.2794472098749743</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5372871290069259</v>
+        <v>0.5495406295367027</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -2225,19 +2225,19 @@
         <v>89501</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74959</v>
+        <v>76113</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>102781</v>
+        <v>102254</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5269178341533433</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4413022907750047</v>
+        <v>0.4481005033187432</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6050989290061615</v>
+        <v>0.601994230814823</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>24308</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16055</v>
+        <v>15441</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34695</v>
+        <v>34673</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2121752863935135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1401428086635206</v>
+        <v>0.1347773430304615</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3028386708734201</v>
+        <v>0.3026475756469353</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2275,19 +2275,19 @@
         <v>14579</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9051</v>
+        <v>8850</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22224</v>
+        <v>22378</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2636690263892783</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1636933099539229</v>
+        <v>0.1600562230047495</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.401931760142323</v>
+        <v>0.4047229000385964</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -2296,19 +2296,19 @@
         <v>38887</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28439</v>
+        <v>27205</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52453</v>
+        <v>51076</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.228937574534549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1674279642376206</v>
+        <v>0.1601658557399533</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.30880358467409</v>
+        <v>0.3007011011367172</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>23286</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15278</v>
+        <v>15384</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32736</v>
+        <v>33596</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2032523703164764</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.133354519005968</v>
+        <v>0.1342802342153</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2857449614263731</v>
+        <v>0.2932507124895883</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2346,19 +2346,19 @@
         <v>18184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11478</v>
+        <v>10681</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25628</v>
+        <v>25175</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3288732508359727</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2075882705635278</v>
+        <v>0.1931712112706861</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4634989059154221</v>
+        <v>0.4553018998689525</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -2367,19 +2367,19 @@
         <v>41470</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30161</v>
+        <v>29740</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53458</v>
+        <v>52993</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2441445913121077</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1775666557342159</v>
+        <v>0.1750871259096006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3147244360021734</v>
+        <v>0.3119845545287049</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>146082</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>129380</v>
+        <v>128474</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>162781</v>
+        <v>162318</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5474941472451944</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4848993338197185</v>
+        <v>0.4815022026781056</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6100788184889208</v>
+        <v>0.60834532885617</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>75</v>
@@ -2492,19 +2492,19 @@
         <v>79989</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>64568</v>
+        <v>67388</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>93500</v>
+        <v>94826</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4465918309014092</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.360495356947784</v>
+        <v>0.3762375743640278</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.522026985456059</v>
+        <v>0.5294283633884338</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>218</v>
@@ -2513,19 +2513,19 @@
         <v>226071</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>204711</v>
+        <v>204619</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>249206</v>
+        <v>248489</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5069661014124369</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.459066618588064</v>
+        <v>0.4588601798532351</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5588468842928441</v>
+        <v>0.5572394544424396</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>53825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39224</v>
+        <v>42079</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68302</v>
+        <v>70065</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2017272955388073</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1470050337159164</v>
+        <v>0.1577066633518849</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.255987284488522</v>
+        <v>0.2625935279545192</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -2563,19 +2563,19 @@
         <v>45047</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34528</v>
+        <v>33589</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58626</v>
+        <v>56501</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2515024778575475</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1927747489637412</v>
+        <v>0.1875342834738359</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3273208774234914</v>
+        <v>0.3154530353611895</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>89</v>
@@ -2584,19 +2584,19 @@
         <v>98871</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>80910</v>
+        <v>81160</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>118399</v>
+        <v>117533</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2217198085300317</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1814413599808187</v>
+        <v>0.1820022529563631</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2655114591060396</v>
+        <v>0.263567972511712</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>66912</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53732</v>
+        <v>53120</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>84586</v>
+        <v>83104</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2507785572159983</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2013813687857901</v>
+        <v>0.1990879462915963</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3170182170365161</v>
+        <v>0.3114622826067058</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -2634,19 +2634,19 @@
         <v>54074</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>43060</v>
+        <v>41960</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>68274</v>
+        <v>66868</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3019056912410433</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2404132325346201</v>
+        <v>0.2342681288103018</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.381184331822475</v>
+        <v>0.3733368919502348</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>110</v>
@@ -2655,19 +2655,19 @@
         <v>120987</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>100464</v>
+        <v>100135</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>142025</v>
+        <v>140957</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2713140900575314</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2252903960755637</v>
+        <v>0.2245525736741812</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3184916914815026</v>
+        <v>0.3160971014131012</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>255800</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>238423</v>
+        <v>238054</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>273974</v>
+        <v>274530</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7145138809648847</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6659754035316084</v>
+        <v>0.6649446711418404</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7652763231584584</v>
+        <v>0.7668298272902639</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>171</v>
@@ -2780,19 +2780,19 @@
         <v>189547</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>172374</v>
+        <v>175557</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>202324</v>
+        <v>203542</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.742267951377642</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6750200519870048</v>
+        <v>0.6874809699264083</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7923019916900812</v>
+        <v>0.7970714899552858</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>410</v>
@@ -2801,19 +2801,19 @@
         <v>445347</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>422645</v>
+        <v>420514</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>468682</v>
+        <v>467944</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.726068665214113</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6890558402850521</v>
+        <v>0.6855821683895306</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7641129839935337</v>
+        <v>0.7629084627660915</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>56766</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>43214</v>
+        <v>42408</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>71304</v>
+        <v>70594</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1585622823429016</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1207078064026258</v>
+        <v>0.1184561359749492</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.19916937805321</v>
+        <v>0.1971872531530482</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>29</v>
@@ -2851,19 +2851,19 @@
         <v>31023</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>21896</v>
+        <v>20997</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>43481</v>
+        <v>43198</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1214860963822878</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0857438014705726</v>
+        <v>0.08222479414664033</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1702722447516127</v>
+        <v>0.1691638975621924</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>83</v>
@@ -2872,19 +2872,19 @@
         <v>87789</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>70168</v>
+        <v>69784</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>106309</v>
+        <v>104740</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1431264445292798</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1143972433269269</v>
+        <v>0.1137724960546607</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1733208464668194</v>
+        <v>0.1707615225218577</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>45439</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32758</v>
+        <v>33137</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>59989</v>
+        <v>60927</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1269238366922138</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09150175402947787</v>
+        <v>0.0925601673459595</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1675636603853531</v>
+        <v>0.170183914353556</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -2922,19 +2922,19 @@
         <v>34792</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>23884</v>
+        <v>23647</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>47130</v>
+        <v>46366</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1362459522400701</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09353062995649848</v>
+        <v>0.0926024268325559</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1845609602193058</v>
+        <v>0.1815698560847984</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>72</v>
@@ -2943,19 +2943,19 @@
         <v>80232</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>63238</v>
+        <v>63118</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>99228</v>
+        <v>100340</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1308048902566072</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.103099850040124</v>
+        <v>0.1029036289902469</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1617759784014425</v>
+        <v>0.1635883600294515</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>810007</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>465</v>
@@ -3068,19 +3068,19 @@
         <v>503080</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1233</v>
@@ -3089,19 +3089,19 @@
         <v>1313087</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>267240</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>239434</v>
+        <v>238738</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>303176</v>
+        <v>298992</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1922837252580313</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1722772927687312</v>
+        <v>0.171776257479993</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2181402377455117</v>
+        <v>0.2151299431834406</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>188</v>
@@ -3139,19 +3139,19 @@
         <v>204742</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>178590</v>
+        <v>177835</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>230615</v>
+        <v>231018</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2211164464912007</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1928732822431691</v>
+        <v>0.1920579658544087</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2490589983567557</v>
+        <v>0.2494937128371215</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>438</v>
@@ -3160,19 +3160,19 @@
         <v>471982</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>432499</v>
+        <v>431482</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>514061</v>
+        <v>513483</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2038123308150686</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1867628488158641</v>
+        <v>0.1863236682921159</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2219831909899737</v>
+        <v>0.2217333644599714</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>312573</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>201</v>
@@ -3210,19 +3210,19 @@
         <v>218125</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>488</v>
@@ -3231,19 +3231,19 @@
         <v>530698</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>48377</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37518</v>
+        <v>37291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60687</v>
+        <v>59717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3636007922503707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2819841150731184</v>
+        <v>0.2802748521054622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4561219168684661</v>
+        <v>0.4488247504742798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -3600,19 +3600,19 @@
         <v>42798</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33430</v>
+        <v>34430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53755</v>
+        <v>53419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4276798763715733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3340633995509651</v>
+        <v>0.3440632167987978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5371708104973149</v>
+        <v>0.5338206236570576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -3621,19 +3621,19 @@
         <v>91175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75635</v>
+        <v>75596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107543</v>
+        <v>106524</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3911074897748905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3244467992624934</v>
+        <v>0.3242776517459565</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4613222834678997</v>
+        <v>0.4569486887796516</v>
       </c>
     </row>
     <row r="5">
@@ -3653,16 +3653,16 @@
         <v>29548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50234</v>
+        <v>52382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2964187742230326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2220800996709885</v>
+        <v>0.2220829787386814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3775521447289866</v>
+        <v>0.3936998206067455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3671,19 +3671,19 @@
         <v>27012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18701</v>
+        <v>18987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37645</v>
+        <v>36298</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2699277416036948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1868807349120306</v>
+        <v>0.1897330324876683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3761885498755855</v>
+        <v>0.3627268384611257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -3692,19 +3692,19 @@
         <v>66450</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53029</v>
+        <v>52366</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81830</v>
+        <v>80737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2850471881374068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2274754926779451</v>
+        <v>0.2246309485569156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3510203132547204</v>
+        <v>0.3463330772477966</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>45235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35143</v>
+        <v>34657</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56930</v>
+        <v>57747</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3399804335265967</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2641299743491259</v>
+        <v>0.2604755637588713</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4278811370371798</v>
+        <v>0.4340226048700596</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -3742,19 +3742,19 @@
         <v>30260</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21698</v>
+        <v>21549</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40770</v>
+        <v>39893</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.302392382024732</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2168245554604489</v>
+        <v>0.2153435185872899</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4074196524479192</v>
+        <v>0.398652361120622</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -3763,19 +3763,19 @@
         <v>75495</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60775</v>
+        <v>60605</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>91165</v>
+        <v>90542</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3238453220877027</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.260702817241239</v>
+        <v>0.2599734853192011</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3910649967783038</v>
+        <v>0.388392806885609</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>89009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76786</v>
+        <v>74877</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101720</v>
+        <v>102933</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5226700526818215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4508923634235458</v>
+        <v>0.4396855205751413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5973077624716272</v>
+        <v>0.6044328149266019</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -3888,19 +3888,19 @@
         <v>67635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56973</v>
+        <v>57350</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77577</v>
+        <v>77556</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5949607573965895</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5011694917711349</v>
+        <v>0.5044852711387549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6824181948655338</v>
+        <v>0.682231825661749</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -3909,19 +3909,19 @@
         <v>156644</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>139419</v>
+        <v>136857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>171880</v>
+        <v>173620</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5516090930748173</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.490952384505372</v>
+        <v>0.481928722809733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6052619708197644</v>
+        <v>0.6113862741286467</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>43457</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32564</v>
+        <v>32394</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54729</v>
+        <v>55835</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2551860118921386</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1912205501554078</v>
+        <v>0.190219649149672</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3213738895229941</v>
+        <v>0.3278690109709833</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -3959,19 +3959,19 @@
         <v>21994</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13939</v>
+        <v>14694</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30586</v>
+        <v>31010</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1934759710242328</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1226179403445263</v>
+        <v>0.1292589889484147</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2690510694553118</v>
+        <v>0.2727827614750254</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -3980,19 +3980,19 @@
         <v>65452</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>52495</v>
+        <v>51686</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80448</v>
+        <v>81021</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2304825680347857</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1848548301258153</v>
+        <v>0.1820068531130883</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2832903355908006</v>
+        <v>0.2853086892290333</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>37830</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27270</v>
+        <v>27093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49968</v>
+        <v>49983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2221439354260399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1601332914830836</v>
+        <v>0.1590923107130354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2934187001436953</v>
+        <v>0.2935056162743681</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -4030,19 +4030,19 @@
         <v>24051</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16856</v>
+        <v>15875</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33929</v>
+        <v>33291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2115632715791777</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1482729282362121</v>
+        <v>0.1396420466355376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2984635968789853</v>
+        <v>0.2928465558508015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -4051,19 +4051,19 @@
         <v>61881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49344</v>
+        <v>49206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78121</v>
+        <v>78278</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.217908338890397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1737598062914323</v>
+        <v>0.173273285223366</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2750965354114671</v>
+        <v>0.2756474677053397</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>53962</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43219</v>
+        <v>43639</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64507</v>
+        <v>65310</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.429671747882686</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3441334638732748</v>
+        <v>0.3474740523188998</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5136322844239717</v>
+        <v>0.5200284043123151</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -4176,19 +4176,19 @@
         <v>34539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25096</v>
+        <v>26076</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42741</v>
+        <v>43956</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4095548028336294</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.297579992611792</v>
+        <v>0.3092058934214242</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5068180596271225</v>
+        <v>0.5212224326574695</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -4197,19 +4197,19 @@
         <v>88501</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>74136</v>
+        <v>74536</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101865</v>
+        <v>101741</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4215900458830006</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3531575793829455</v>
+        <v>0.3550647616539814</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4852494133977664</v>
+        <v>0.4846602745958222</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>34706</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25603</v>
+        <v>25962</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44839</v>
+        <v>45327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2763430416920298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.203860249885965</v>
+        <v>0.2067201200338059</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3570288084970967</v>
+        <v>0.3609135875999656</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4247,19 +4247,19 @@
         <v>27595</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19671</v>
+        <v>20108</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37257</v>
+        <v>36970</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3272113443690924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2332528537765957</v>
+        <v>0.2384336871890905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4417875272917738</v>
+        <v>0.4383753473177764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -4268,19 +4268,19 @@
         <v>62300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49727</v>
+        <v>49755</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76198</v>
+        <v>75279</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2967786725725298</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2368846187195078</v>
+        <v>0.2370187882153394</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3629846899059507</v>
+        <v>0.358606497859936</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>36921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27993</v>
+        <v>27992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46477</v>
+        <v>47694</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2939852104252841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2228947462412004</v>
+        <v>0.2228849516429436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3700701949352779</v>
+        <v>0.3797625539175404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -4318,19 +4318,19 @@
         <v>22199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14795</v>
+        <v>14446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30565</v>
+        <v>30449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2632338527972782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.175429586159506</v>
+        <v>0.1713020985038203</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3624325810205978</v>
+        <v>0.3610578537897763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -4339,19 +4339,19 @@
         <v>59121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47422</v>
+        <v>47070</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72448</v>
+        <v>72187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2816312815444696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2259052723068258</v>
+        <v>0.22422459583025</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3451169209824793</v>
+        <v>0.3438760146643796</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>50458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39858</v>
+        <v>38898</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61641</v>
+        <v>60514</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4497981637765913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3553061502102409</v>
+        <v>0.3467421678864865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5494795642175782</v>
+        <v>0.5394344170855836</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -4464,19 +4464,19 @@
         <v>34920</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26360</v>
+        <v>26111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44271</v>
+        <v>44450</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4265860918024107</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3220221625835879</v>
+        <v>0.318973398322972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5408149259206773</v>
+        <v>0.5430100189401363</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -4485,19 +4485,19 @@
         <v>85378</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70639</v>
+        <v>71108</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100088</v>
+        <v>100658</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4400057363577858</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3640438936855096</v>
+        <v>0.3664636060404041</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5158114463903156</v>
+        <v>0.518750254221846</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>26630</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18450</v>
+        <v>18336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35894</v>
+        <v>36376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.237385961026123</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1644717652402457</v>
+        <v>0.1634492648309736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3199705776677998</v>
+        <v>0.3242667872383301</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -4535,19 +4535,19 @@
         <v>14724</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8889</v>
+        <v>8719</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23744</v>
+        <v>22319</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1798703933183733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1085942684684378</v>
+        <v>0.1065136242081565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2900624520782093</v>
+        <v>0.272651901549083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -4556,19 +4556,19 @@
         <v>41354</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30311</v>
+        <v>30983</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54157</v>
+        <v>52904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2131219908447445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.156208849221679</v>
+        <v>0.1596764075510012</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2791032873744732</v>
+        <v>0.2726471746481297</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>35092</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25529</v>
+        <v>26275</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45820</v>
+        <v>46018</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3128158751972858</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2275747693463963</v>
+        <v>0.2342254434432492</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4084524503672006</v>
+        <v>0.4102167414357022</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -4606,19 +4606,19 @@
         <v>32215</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23374</v>
+        <v>24277</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40956</v>
+        <v>42561</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.393543514879216</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2855423270058437</v>
+        <v>0.2965706091685972</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5003199291494408</v>
+        <v>0.519932448480236</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -4627,19 +4627,19 @@
         <v>67307</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54059</v>
+        <v>55177</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>81305</v>
+        <v>82787</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3468722727974697</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.278597667020298</v>
+        <v>0.2843579516474778</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4190126042290056</v>
+        <v>0.4266515742924321</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>50980</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41814</v>
+        <v>41832</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59097</v>
+        <v>58959</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6299263612412555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5166645397601548</v>
+        <v>0.5168931237896185</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7302275355306778</v>
+        <v>0.7285222036181653</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -4752,19 +4752,19 @@
         <v>32645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25462</v>
+        <v>25543</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39491</v>
+        <v>38848</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.58906148834751</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4594472058930925</v>
+        <v>0.4609117342655335</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.712598597657871</v>
+        <v>0.7010051605365597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -4773,19 +4773,19 @@
         <v>83625</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>71694</v>
+        <v>72542</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94910</v>
+        <v>93949</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.613316945162277</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5258158440958975</v>
+        <v>0.5320334009229538</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6960899633671674</v>
+        <v>0.6890411922536905</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>17566</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11340</v>
+        <v>10906</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26364</v>
+        <v>25727</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2170577571778699</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1401236343846502</v>
+        <v>0.134758612829159</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3257685643001173</v>
+        <v>0.3178888318168939</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -4823,19 +4823,19 @@
         <v>13625</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8649</v>
+        <v>8558</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20625</v>
+        <v>20779</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2458505503252978</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1560747476451167</v>
+        <v>0.1544323410897666</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3721793694315629</v>
+        <v>0.3749556242857818</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -4844,19 +4844,19 @@
         <v>31191</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22356</v>
+        <v>23230</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41970</v>
+        <v>42251</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2287605093852501</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1639636575833596</v>
+        <v>0.1703753243324614</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3078122062409053</v>
+        <v>0.3098777738532127</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>12384</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7615</v>
+        <v>6759</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19232</v>
+        <v>19702</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1530158815808747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09409565063770851</v>
+        <v>0.08351660486853144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2376416814979227</v>
+        <v>0.2434478683769875</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4894,19 +4894,19 @@
         <v>9149</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4632</v>
+        <v>4651</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15816</v>
+        <v>15377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1650879613271922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08357697853168079</v>
+        <v>0.08392000436534537</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2853885385872606</v>
+        <v>0.2774810429526581</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -4915,19 +4915,19 @@
         <v>21532</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13667</v>
+        <v>14334</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30631</v>
+        <v>30939</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1579225454524729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1002343388896891</v>
+        <v>0.1051315764676225</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2246524457222585</v>
+        <v>0.2269145678704136</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>57837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48001</v>
+        <v>47283</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67841</v>
+        <v>67848</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5380086963634245</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4465108590161653</v>
+        <v>0.4398329992221481</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6310704698635963</v>
+        <v>0.6311283927590967</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -5040,19 +5040,19 @@
         <v>44606</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35854</v>
+        <v>36097</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52688</v>
+        <v>53539</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5902714310906998</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4744577815269682</v>
+        <v>0.4776768216882833</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6972249598980877</v>
+        <v>0.7084856272184445</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>103</v>
@@ -5061,19 +5061,19 @@
         <v>102443</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>88469</v>
+        <v>89267</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>116366</v>
+        <v>115950</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5595818395123711</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4832517565826995</v>
+        <v>0.4876070613923995</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6356338853121966</v>
+        <v>0.6333581837146585</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>28051</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19355</v>
+        <v>19322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38066</v>
+        <v>37940</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2609366037123593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1800475217908542</v>
+        <v>0.1797349710362869</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3541001194592534</v>
+        <v>0.3529271674926672</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -5111,19 +5111,19 @@
         <v>22411</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15226</v>
+        <v>14995</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30146</v>
+        <v>31142</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2965711534246377</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2014828666579701</v>
+        <v>0.1984262441700561</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3989212643870506</v>
+        <v>0.4121075521956395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -5132,19 +5132,19 @@
         <v>50463</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37709</v>
+        <v>37512</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64138</v>
+        <v>63112</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2756459228094718</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2059789063079023</v>
+        <v>0.2049023915674701</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.350346167952764</v>
+        <v>0.3447384940713145</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>21614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13780</v>
+        <v>13571</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30204</v>
+        <v>31284</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2010546999242162</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1281796278613205</v>
+        <v>0.1262357877335032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2809583627077132</v>
+        <v>0.2910082392789101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -5182,19 +5182,19 @@
         <v>8551</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3928</v>
+        <v>4500</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15112</v>
+        <v>14876</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1131574154846624</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05197384315020963</v>
+        <v>0.05955496950604802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1999782620142847</v>
+        <v>0.1968609691928483</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -5203,19 +5203,19 @@
         <v>30165</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20598</v>
+        <v>21491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41199</v>
+        <v>41412</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1647722376781572</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1125134790581736</v>
+        <v>0.1173893034605217</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2250429810032805</v>
+        <v>0.2262089596075531</v>
       </c>
     </row>
     <row r="27">
@@ -5307,19 +5307,19 @@
         <v>166123</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>146088</v>
+        <v>146236</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>185903</v>
+        <v>186713</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4629001600622561</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4070728350566582</v>
+        <v>0.407484341594432</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5180171871328854</v>
+        <v>0.5202723982406654</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>135</v>
@@ -5328,19 +5328,19 @@
         <v>139045</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>122463</v>
+        <v>121696</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>156348</v>
+        <v>155694</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4898618965370087</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4314409764527086</v>
+        <v>0.4287390023745264</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5508214816355038</v>
+        <v>0.548516740154566</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>280</v>
@@ -5349,19 +5349,19 @@
         <v>305169</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>278933</v>
+        <v>280130</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>331448</v>
+        <v>332795</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4748073196737151</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4339875559414013</v>
+        <v>0.4358507263181871</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5156956186632351</v>
+        <v>0.5177909401286488</v>
       </c>
     </row>
     <row r="29">
@@ -5378,19 +5378,19 @@
         <v>85018</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68217</v>
+        <v>68653</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>103091</v>
+        <v>104020</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2369017635420517</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1900868383847014</v>
+        <v>0.1913006536282167</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2872618106022981</v>
+        <v>0.2898510310545644</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -5399,19 +5399,19 @@
         <v>62869</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>48750</v>
+        <v>49600</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>77199</v>
+        <v>77172</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2214884870971444</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1717472040054062</v>
+        <v>0.1747410687727947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2719746673440899</v>
+        <v>0.2718783745826645</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>131</v>
@@ -5420,19 +5420,19 @@
         <v>147887</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>126695</v>
+        <v>126215</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>171774</v>
+        <v>170346</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.230094770864228</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1971228226661009</v>
+        <v>0.1963765619599722</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2672610201659705</v>
+        <v>0.2650387028358477</v>
       </c>
     </row>
     <row r="30">
@@ -5449,19 +5449,19 @@
         <v>107734</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>89434</v>
+        <v>89791</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>127712</v>
+        <v>125393</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3001980763956922</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2492058393668067</v>
+        <v>0.2502007841851673</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3558686045379736</v>
+        <v>0.3494050023223718</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>78</v>
@@ -5470,19 +5470,19 @@
         <v>81932</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>67759</v>
+        <v>67505</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98480</v>
+        <v>98017</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2886496163658469</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2387188233709369</v>
+        <v>0.2378218385617647</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3469495982601662</v>
+        <v>0.3453166028576185</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>174</v>
@@ -5491,19 +5491,19 @@
         <v>189666</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>166662</v>
+        <v>166113</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>213216</v>
+        <v>216208</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2950979094620569</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2593066743104695</v>
+        <v>0.2584522010836844</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3317388199166798</v>
+        <v>0.336394188740326</v>
       </c>
     </row>
     <row r="31">
@@ -5595,19 +5595,19 @@
         <v>261183</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>246068</v>
+        <v>245221</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>275053</v>
+        <v>276524</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7965021768851512</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7504072988542485</v>
+        <v>0.7478243099792345</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8387985941297502</v>
+        <v>0.8432849099299717</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>166</v>
@@ -5616,19 +5616,19 @@
         <v>173066</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>158655</v>
+        <v>157700</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>185938</v>
+        <v>185600</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7296004678972824</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6688449617411385</v>
+        <v>0.6648207932025741</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7838646888027657</v>
+        <v>0.7824378824650233</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>417</v>
@@ -5637,19 +5637,19 @@
         <v>434249</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>412591</v>
+        <v>414427</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>452999</v>
+        <v>453488</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7684204450029375</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7300960706956404</v>
+        <v>0.7333443078610921</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8015984330629896</v>
+        <v>0.8024649033730055</v>
       </c>
     </row>
     <row r="33">
@@ -5666,19 +5666,19 @@
         <v>45788</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>34227</v>
+        <v>33359</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>59731</v>
+        <v>59097</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1396336539004</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1043797009008831</v>
+        <v>0.1017304658229985</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1821539698304687</v>
+        <v>0.180220362118475</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>34</v>
@@ -5687,19 +5687,19 @@
         <v>34922</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>24357</v>
+        <v>24480</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>45917</v>
+        <v>46107</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1472198698007893</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1026828473022104</v>
+        <v>0.1031997788341677</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1935755664595965</v>
+        <v>0.1943738510925135</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>77</v>
@@ -5708,19 +5708,19 @@
         <v>80709</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>64579</v>
+        <v>65254</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>98534</v>
+        <v>97970</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1428179384895119</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1142749044889882</v>
+        <v>0.1154692262037133</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1743589133096011</v>
+        <v>0.1733615466490555</v>
       </c>
     </row>
     <row r="34">
@@ -5737,19 +5737,19 @@
         <v>20942</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12967</v>
+        <v>13026</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>30699</v>
+        <v>31331</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06386416921444875</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03954319800088191</v>
+        <v>0.03972505808744953</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09361934955439402</v>
+        <v>0.09554585313630579</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -5758,19 +5758,19 @@
         <v>29219</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>20474</v>
+        <v>20403</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>40416</v>
+        <v>42671</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1231796623019284</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08631416259589141</v>
+        <v>0.08601248912976417</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1703815507846079</v>
+        <v>0.1798885972824483</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>48</v>
@@ -5779,19 +5779,19 @@
         <v>50161</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>38182</v>
+        <v>37168</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>64594</v>
+        <v>64891</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08876161650755059</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06756470019967645</v>
+        <v>0.06576983091136403</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1143018125221924</v>
+        <v>0.1148265023818068</v>
       </c>
     </row>
     <row r="35">
@@ -5883,19 +5883,19 @@
         <v>777931</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>556</v>
@@ -5904,19 +5904,19 @@
         <v>569254</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1283</v>
@@ -5925,19 +5925,19 @@
         <v>1347184</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5502489460869632</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
     </row>
     <row r="37">
@@ -5954,19 +5954,19 @@
         <v>320655</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>288182</v>
+        <v>288422</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>354836</v>
+        <v>353110</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2263976476487986</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2034701630131225</v>
+        <v>0.2036393569267508</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.250530997247049</v>
+        <v>0.2493121224393628</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>219</v>
@@ -5975,19 +5975,19 @@
         <v>225151</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>198032</v>
+        <v>198252</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>253423</v>
+        <v>252087</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2181734870270256</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1918948029945922</v>
+        <v>0.1921084294846432</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2455694577608363</v>
+        <v>0.2442745653227865</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>511</v>
@@ -5996,19 +5996,19 @@
         <v>545806</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>505932</v>
+        <v>506133</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>597169</v>
+        <v>585149</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2229311121111</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2066446508964417</v>
+        <v>0.2067269119472973</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2439100201986303</v>
+        <v>0.2390003754172252</v>
       </c>
     </row>
     <row r="38">
@@ -6025,19 +6025,19 @@
         <v>317751</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>233</v>
@@ -6046,19 +6046,19 @@
         <v>237576</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>531</v>
@@ -6067,19 +6067,19 @@
         <v>555327</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2268199418019368</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
     </row>
     <row r="39">
@@ -6415,19 +6415,19 @@
         <v>16465</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10242</v>
+        <v>10413</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23262</v>
+        <v>23625</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4031569202253962</v>
+        <v>0.4031569202253961</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2507851612198398</v>
+        <v>0.2549571461712487</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5695644045195546</v>
+        <v>0.5784512312467947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -6436,19 +6436,19 @@
         <v>15871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11440</v>
+        <v>11671</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20419</v>
+        <v>20378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4847342672468744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3494158529744302</v>
+        <v>0.3564769428437488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6236375834063379</v>
+        <v>0.6223887786404559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -6457,19 +6457,19 @@
         <v>32336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24274</v>
+        <v>25337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40428</v>
+        <v>41142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4394553878754753</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3298875563731016</v>
+        <v>0.3443303076026678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5494300197533277</v>
+        <v>0.5591251557466225</v>
       </c>
     </row>
     <row r="5">
@@ -6486,19 +6486,19 @@
         <v>17955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11446</v>
+        <v>11169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24749</v>
+        <v>24597</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4396313802509766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2802658580632933</v>
+        <v>0.2734727745725677</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6059889827511918</v>
+        <v>0.6022544257581625</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -6507,19 +6507,19 @@
         <v>13836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9715</v>
+        <v>9803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18842</v>
+        <v>18127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.42259789949697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2967212509273606</v>
+        <v>0.299399228048623</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5754973744446046</v>
+        <v>0.5536619667326096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -6528,19 +6528,19 @@
         <v>31791</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24232</v>
+        <v>23721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40143</v>
+        <v>39249</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4320522020514849</v>
+        <v>0.432052202051485</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3293245640730237</v>
+        <v>0.3223817993774168</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5455506407584225</v>
+        <v>0.5333994852367743</v>
       </c>
     </row>
     <row r="6">
@@ -6557,19 +6557,19 @@
         <v>6421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2288</v>
+        <v>1807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15688</v>
+        <v>14456</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1572116995236273</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05602394499911369</v>
+        <v>0.04423727070185451</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3841321247016831</v>
+        <v>0.3539597377559072</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -6578,19 +6578,19 @@
         <v>3034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1226</v>
+        <v>1080</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6783</v>
+        <v>6307</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09266783325615577</v>
+        <v>0.09266783325615578</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03744203315442191</v>
+        <v>0.03298621603849496</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2071775493939268</v>
+        <v>0.192636927424588</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -6599,19 +6599,19 @@
         <v>9455</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4957</v>
+        <v>5099</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19704</v>
+        <v>18978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1284924100730399</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06736136612969591</v>
+        <v>0.06929622473389517</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2677838446693304</v>
+        <v>0.2579138389474124</v>
       </c>
     </row>
     <row r="7">
@@ -6703,19 +6703,19 @@
         <v>13738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6974</v>
+        <v>7430</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21277</v>
+        <v>23652</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2652554298381277</v>
+        <v>0.2652554298381278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.134663258499861</v>
+        <v>0.1434647520250918</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4108177660402974</v>
+        <v>0.4566874874002074</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -6724,19 +6724,19 @@
         <v>19810</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14261</v>
+        <v>13859</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25818</v>
+        <v>25710</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4602154326778422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3313065014480475</v>
+        <v>0.3219809574909327</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5998134819346358</v>
+        <v>0.5972925260725827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -6745,19 +6745,19 @@
         <v>33547</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24619</v>
+        <v>24424</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43725</v>
+        <v>44283</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3537445503440587</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2595950549274021</v>
+        <v>0.257538019964008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4610669091977364</v>
+        <v>0.4669502036630964</v>
       </c>
     </row>
     <row r="9">
@@ -6774,19 +6774,19 @@
         <v>14880</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8196</v>
+        <v>7686</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23567</v>
+        <v>23925</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.287313627909487</v>
+        <v>0.2873136279094871</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1582606241316931</v>
+        <v>0.1484060803761212</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4550420688296061</v>
+        <v>0.4619604317975511</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -6795,19 +6795,19 @@
         <v>7574</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3714</v>
+        <v>4158</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12575</v>
+        <v>12650</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1759514784607733</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08629431132236991</v>
+        <v>0.09660821946293852</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2921472469047426</v>
+        <v>0.2938764535976267</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -6816,19 +6816,19 @@
         <v>22454</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14721</v>
+        <v>14121</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33572</v>
+        <v>33541</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2367681902872459</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1552312925391962</v>
+        <v>0.1488997382244975</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3540002382928288</v>
+        <v>0.3536780134569569</v>
       </c>
     </row>
     <row r="10">
@@ -6845,19 +6845,19 @@
         <v>23173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15014</v>
+        <v>13701</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32932</v>
+        <v>31199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4474309422523853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2898877920144181</v>
+        <v>0.2645429937601662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6358586808688689</v>
+        <v>0.6023958078163649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -6866,19 +6866,19 @@
         <v>15661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10527</v>
+        <v>10068</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21657</v>
+        <v>21740</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3638330888613845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2445660095221693</v>
+        <v>0.2338893951053758</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5031368703303241</v>
+        <v>0.5050643649426613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -6887,19 +6887,19 @@
         <v>38834</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28202</v>
+        <v>28799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49580</v>
+        <v>50503</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4094872593686951</v>
+        <v>0.4094872593686953</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2973745357050724</v>
+        <v>0.3036726481167578</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5228016750778665</v>
+        <v>0.5325317688973016</v>
       </c>
     </row>
     <row r="11">
@@ -6991,19 +6991,19 @@
         <v>7151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3209</v>
+        <v>2988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11887</v>
+        <v>12398</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2482446525043278</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1113955610977491</v>
+        <v>0.1037388853507667</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4126623383800876</v>
+        <v>0.4304063263172463</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -7012,19 +7012,19 @@
         <v>11938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7225</v>
+        <v>7960</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16023</v>
+        <v>16238</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4375918034057502</v>
+        <v>0.4375918034057501</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2648262616811337</v>
+        <v>0.2917859960970289</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5873382161251295</v>
+        <v>0.5951960344855426</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -7033,19 +7033,19 @@
         <v>19089</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13208</v>
+        <v>13265</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27117</v>
+        <v>25418</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3403459331528805</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2355008334415438</v>
+        <v>0.236505125851928</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.483490421108141</v>
+        <v>0.4531995835245194</v>
       </c>
     </row>
     <row r="13">
@@ -7062,19 +7062,19 @@
         <v>14301</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8845</v>
+        <v>9047</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20174</v>
+        <v>19654</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4964716392908668</v>
+        <v>0.4964716392908667</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3070740765504991</v>
+        <v>0.3140699453381529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7003631826884448</v>
+        <v>0.6822959983935577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -7083,19 +7083,19 @@
         <v>8403</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4907</v>
+        <v>4636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13055</v>
+        <v>12617</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3080008122233484</v>
+        <v>0.3080008122233483</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1798852428673909</v>
+        <v>0.1699511831501201</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4785412272696453</v>
+        <v>0.4624918450924229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -7104,19 +7104,19 @@
         <v>22703</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16552</v>
+        <v>15807</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30341</v>
+        <v>29487</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4047966156363125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.295115622124381</v>
+        <v>0.2818333776234039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5409816780090622</v>
+        <v>0.5257503063959942</v>
       </c>
     </row>
     <row r="14">
@@ -7133,19 +7133,19 @@
         <v>7353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3509</v>
+        <v>3585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11948</v>
+        <v>12467</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2552837082048054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1218206199652034</v>
+        <v>0.1244702977959974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4147745181018236</v>
+        <v>0.4328065731959103</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -7154,19 +7154,19 @@
         <v>6940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3418</v>
+        <v>3641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11526</v>
+        <v>11618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2544073843709015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1252768575108198</v>
+        <v>0.1334681691104211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4224826837402815</v>
+        <v>0.4258740662220584</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -7175,19 +7175,19 @@
         <v>14294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8485</v>
+        <v>8755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20981</v>
+        <v>20634</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2548574512108071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1512879064397809</v>
+        <v>0.1560925362398939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3740866470199743</v>
+        <v>0.3678905305905068</v>
       </c>
     </row>
     <row r="15">
@@ -7279,19 +7279,19 @@
         <v>25001</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13863</v>
+        <v>14016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38508</v>
+        <v>38300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.366501037412698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2032187306372041</v>
+        <v>0.2054684368213292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.56450813315819</v>
+        <v>0.5614636789745181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -7300,19 +7300,19 @@
         <v>17983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10878</v>
+        <v>11050</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25263</v>
+        <v>26004</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4025417577370148</v>
+        <v>0.4025417577370147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2434931811066327</v>
+        <v>0.2473450746585728</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5654892198495378</v>
+        <v>0.5820876831942743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -7321,19 +7321,19 @@
         <v>42984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29592</v>
+        <v>30498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58296</v>
+        <v>57529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3807636873361973</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2621353296446748</v>
+        <v>0.2701597029391123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5164000730687278</v>
+        <v>0.5096091419359841</v>
       </c>
     </row>
     <row r="17">
@@ -7350,19 +7350,19 @@
         <v>19542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9410</v>
+        <v>10596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30511</v>
+        <v>31462</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2864745431269029</v>
+        <v>0.2864745431269028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1379516184802051</v>
+        <v>0.1553323186901801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4472743613360798</v>
+        <v>0.4612110895203172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -7371,19 +7371,19 @@
         <v>8075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3863</v>
+        <v>3811</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14442</v>
+        <v>14063</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1807466782552773</v>
+        <v>0.1807466782552772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08647016292339309</v>
+        <v>0.0853160652514974</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3232862965382552</v>
+        <v>0.3147833053608877</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -7392,19 +7392,19 @@
         <v>27616</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17356</v>
+        <v>17324</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41283</v>
+        <v>40661</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2446341051374987</v>
+        <v>0.2446341051374986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.153746585847771</v>
+        <v>0.1534582302290578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3656999094009782</v>
+        <v>0.360189072530899</v>
       </c>
     </row>
     <row r="18">
@@ -7421,19 +7421,19 @@
         <v>23672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13110</v>
+        <v>13499</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36489</v>
+        <v>36054</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3470244194603992</v>
+        <v>0.347024419460399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1921870193142956</v>
+        <v>0.1978939642458012</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5349064213229588</v>
+        <v>0.5285411134061347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -7442,19 +7442,19 @@
         <v>18616</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11809</v>
+        <v>11165</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25861</v>
+        <v>25841</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.416711564007708</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2643297877939518</v>
+        <v>0.2499227076214389</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.578874089357018</v>
+        <v>0.5784457765916198</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -7463,19 +7463,19 @@
         <v>42288</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29273</v>
+        <v>29151</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>55082</v>
+        <v>56778</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3746022075263041</v>
+        <v>0.374602207526304</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2593059208839903</v>
+        <v>0.2582270910813073</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4879274602267411</v>
+        <v>0.502955713040054</v>
       </c>
     </row>
     <row r="19">
@@ -7567,19 +7567,19 @@
         <v>8433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4226</v>
+        <v>4714</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12358</v>
+        <v>12643</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3803555079337999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.190621385522841</v>
+        <v>0.2126248574585163</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.55738681987813</v>
+        <v>0.5702409270770643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -7588,19 +7588,19 @@
         <v>3324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1209</v>
+        <v>1178</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7027</v>
+        <v>7169</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1428731570575408</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05196257625189932</v>
+        <v>0.05062745090977773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3020247316303524</v>
+        <v>0.3081354003128864</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -7609,19 +7609,19 @@
         <v>11757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7389</v>
+        <v>7048</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17799</v>
+        <v>17720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2587579461608561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.162616398200062</v>
+        <v>0.1551225044723699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3917191682461829</v>
+        <v>0.3899810551916221</v>
       </c>
     </row>
     <row r="21">
@@ -7638,19 +7638,19 @@
         <v>8526</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4727</v>
+        <v>4462</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13402</v>
+        <v>13181</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3845166370429894</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2132079537610426</v>
+        <v>0.2012562712745343</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6044650326832961</v>
+        <v>0.5944670978020926</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -7659,19 +7659,19 @@
         <v>10899</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6895</v>
+        <v>7024</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15065</v>
+        <v>14971</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4684713964156952</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2963539965826134</v>
+        <v>0.3019163689873687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6475462288321744</v>
+        <v>0.6435148375731357</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -7680,19 +7680,19 @@
         <v>19424</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13903</v>
+        <v>13603</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25474</v>
+        <v>25373</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4275038064106807</v>
+        <v>0.4275038064106806</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3059945458187353</v>
+        <v>0.299378230642885</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5606497519826675</v>
+        <v>0.5584145680926119</v>
       </c>
     </row>
     <row r="22">
@@ -7709,19 +7709,19 @@
         <v>5213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2151</v>
+        <v>2242</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9129</v>
+        <v>9641</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2351278550232107</v>
+        <v>0.2351278550232106</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09701081680869443</v>
+        <v>0.1011224936107207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.411739761360124</v>
+        <v>0.4348333728601894</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -7730,19 +7730,19 @@
         <v>9042</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5494</v>
+        <v>5453</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13004</v>
+        <v>12671</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3886554465267638</v>
+        <v>0.3886554465267639</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2361532405450759</v>
+        <v>0.2343702126456728</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5589594852635353</v>
+        <v>0.5446461439123185</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -7751,19 +7751,19 @@
         <v>14255</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9254</v>
+        <v>9797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19631</v>
+        <v>19854</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3137382474284633</v>
+        <v>0.3137382474284632</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2036734230892012</v>
+        <v>0.2156151568029996</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.432044998589676</v>
+        <v>0.4369668752494052</v>
       </c>
     </row>
     <row r="23">
@@ -7855,19 +7855,19 @@
         <v>15826</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10493</v>
+        <v>10855</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21534</v>
+        <v>21407</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4729711670649112</v>
+        <v>0.4729711670649111</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3136079729337597</v>
+        <v>0.3244262343159873</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6435618812414389</v>
+        <v>0.6397739369024801</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -7876,19 +7876,19 @@
         <v>11163</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7132</v>
+        <v>7581</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14793</v>
+        <v>14729</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5634739785915523</v>
+        <v>0.5634739785915522</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3599979857943247</v>
+        <v>0.3826526865896945</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7466860866951067</v>
+        <v>0.743481865190222</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -7897,19 +7897,19 @@
         <v>26989</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20449</v>
+        <v>20266</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33359</v>
+        <v>34403</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5066283555868237</v>
+        <v>0.5066283555868236</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3838676103088081</v>
+        <v>0.3804379850334397</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6262166344869498</v>
+        <v>0.6458088449576718</v>
       </c>
     </row>
     <row r="25">
@@ -7926,19 +7926,19 @@
         <v>5427</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1727</v>
+        <v>2364</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10499</v>
+        <v>9655</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1621975517186431</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05160616453160644</v>
+        <v>0.0706425897473838</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3137843620691167</v>
+        <v>0.2885393383086663</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7947,19 +7947,19 @@
         <v>4339</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1733</v>
+        <v>1839</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8498</v>
+        <v>8063</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.21903915038486</v>
+        <v>0.2190391503848599</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0874920306788331</v>
+        <v>0.09284658587646492</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4289529643840486</v>
+        <v>0.4069981917213943</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -7968,19 +7968,19 @@
         <v>9767</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5115</v>
+        <v>5525</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15361</v>
+        <v>16159</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1833364353613086</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09600969520637322</v>
+        <v>0.1037211890299069</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2883498295160703</v>
+        <v>0.3033396068413386</v>
       </c>
     </row>
     <row r="26">
@@ -7997,19 +7997,19 @@
         <v>12207</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7115</v>
+        <v>7447</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17691</v>
+        <v>18100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3648312812164459</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2126298632710194</v>
+        <v>0.2225655617922765</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5287206407529715</v>
+        <v>0.5409526231622926</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -8018,19 +8018,19 @@
         <v>4309</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1871</v>
+        <v>1584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8027</v>
+        <v>8028</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2174868710235877</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09444379025099346</v>
+        <v>0.07996705383010579</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4051822702672621</v>
+        <v>0.4052045653654549</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -8039,19 +8039,19 @@
         <v>16516</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10713</v>
+        <v>10558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23270</v>
+        <v>22973</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3100352090518677</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2011060506759695</v>
+        <v>0.1982025482272582</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4368312929353804</v>
+        <v>0.4312541932379699</v>
       </c>
     </row>
     <row r="27">
@@ -8143,19 +8143,19 @@
         <v>32459</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23337</v>
+        <v>21226</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43359</v>
+        <v>42828</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.359735980722141</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2586379510690553</v>
+        <v>0.2352413609954948</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4805378829579434</v>
+        <v>0.4746548316667236</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -8164,19 +8164,19 @@
         <v>43437</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35055</v>
+        <v>34709</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52064</v>
+        <v>52196</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4659849581313377</v>
+        <v>0.4659849581313378</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3760651168095783</v>
+        <v>0.3723491226046035</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5585278690470068</v>
+        <v>0.5599503094624888</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>78</v>
@@ -8185,19 +8185,19 @@
         <v>75896</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62175</v>
+        <v>62610</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>89719</v>
+        <v>90319</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4137252896392177</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3389314975431998</v>
+        <v>0.3413017909676138</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4890793037786075</v>
+        <v>0.4923493639849704</v>
       </c>
     </row>
     <row r="29">
@@ -8214,19 +8214,19 @@
         <v>21024</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13335</v>
+        <v>13515</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31144</v>
+        <v>30683</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2330035102735931</v>
+        <v>0.233003510273593</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1477898752309332</v>
+        <v>0.1497788460308928</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3451583834975569</v>
+        <v>0.3400495694033918</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -8235,19 +8235,19 @@
         <v>17575</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11952</v>
+        <v>11526</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25046</v>
+        <v>24864</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1885455595764317</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1282186179650859</v>
+        <v>0.1236460038450973</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.268685243486696</v>
+        <v>0.2667311375888499</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -8256,19 +8256,19 @@
         <v>38599</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28681</v>
+        <v>28841</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50431</v>
+        <v>50331</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2104126666481987</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1563473938693364</v>
+        <v>0.1572211377111607</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2749128301703145</v>
+        <v>0.2743638420072543</v>
       </c>
     </row>
     <row r="30">
@@ -8285,19 +8285,19 @@
         <v>36747</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26227</v>
+        <v>27088</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>47683</v>
+        <v>47975</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.407260509004266</v>
+        <v>0.4072605090042659</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2906646206481281</v>
+        <v>0.3002139766345894</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5284555762031263</v>
+        <v>0.5316936563746922</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -8306,19 +8306,19 @@
         <v>32203</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>24615</v>
+        <v>24413</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>41293</v>
+        <v>40857</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3454694822922305</v>
+        <v>0.3454694822922307</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.264069116961724</v>
+        <v>0.2618944431413248</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4429853662734023</v>
+        <v>0.4383061090915606</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>68</v>
@@ -8327,19 +8327,19 @@
         <v>68950</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>57169</v>
+        <v>57245</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>84032</v>
+        <v>82657</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3758620437125834</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3116416392684018</v>
+        <v>0.3120575314614195</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.458076326108841</v>
+        <v>0.450580660364114</v>
       </c>
     </row>
     <row r="31">
@@ -8431,19 +8431,19 @@
         <v>68597</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55783</v>
+        <v>56129</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>81364</v>
+        <v>81639</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5010902946351581</v>
+        <v>0.501090294635158</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4074909616394846</v>
+        <v>0.4100150128345578</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5943560372175575</v>
+        <v>0.5963594773491391</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>65</v>
@@ -8452,19 +8452,19 @@
         <v>53465</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44277</v>
+        <v>43506</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62685</v>
+        <v>61473</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5348629598032698</v>
+        <v>0.5348629598032697</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4429435533943817</v>
+        <v>0.4352314916612943</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6270993429838063</v>
+        <v>0.6149719318727135</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>121</v>
@@ -8473,19 +8473,19 @@
         <v>122062</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>105414</v>
+        <v>106158</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>137657</v>
+        <v>137078</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5153434134082853</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4450569286813255</v>
+        <v>0.448198893378582</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5811876793088405</v>
+        <v>0.5787429866974172</v>
       </c>
     </row>
     <row r="33">
@@ -8502,19 +8502,19 @@
         <v>28652</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>19798</v>
+        <v>18446</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>41894</v>
+        <v>40728</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2093019547452543</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1446245730246225</v>
+        <v>0.1347451962677124</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3060274309231344</v>
+        <v>0.2975158379676915</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>25</v>
@@ -8523,19 +8523,19 @@
         <v>21490</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>14386</v>
+        <v>14344</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>30016</v>
+        <v>30090</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2149834315515453</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1439195124164381</v>
+        <v>0.1434925192326781</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3002846729339615</v>
+        <v>0.3010199371702435</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>47</v>
@@ -8544,19 +8544,19 @@
         <v>50142</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>37692</v>
+        <v>38316</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>63815</v>
+        <v>64502</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2116997152809936</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1591365837002385</v>
+        <v>0.1617719276987929</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2694247541545736</v>
+        <v>0.2723290356995595</v>
       </c>
     </row>
     <row r="34">
@@ -8573,19 +8573,19 @@
         <v>39646</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28015</v>
+        <v>28447</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>51414</v>
+        <v>52560</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2896077506195876</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2046471048086487</v>
+        <v>0.2077996734391961</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3755715876760208</v>
+        <v>0.383946954267513</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>29</v>
@@ -8594,19 +8594,19 @@
         <v>25005</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17976</v>
+        <v>17985</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33736</v>
+        <v>34019</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2501536086451848</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1798338490793231</v>
+        <v>0.1799214747366373</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.337496666367727</v>
+        <v>0.3403299204670029</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>62</v>
@@ -8615,19 +8615,19 @@
         <v>64651</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>51811</v>
+        <v>50345</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>80691</v>
+        <v>78341</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2729568713107211</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2187458095295973</v>
+        <v>0.2125548008073249</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3406748738747505</v>
+        <v>0.3307546144660482</v>
       </c>
     </row>
     <row r="35">
@@ -8719,19 +8719,19 @@
         <v>187669</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>225</v>
@@ -8740,19 +8740,19 @@
         <v>176990</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>378</v>
@@ -8761,19 +8761,19 @@
         <v>364659</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="37">
@@ -8790,19 +8790,19 @@
         <v>130307</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>106268</v>
+        <v>108651</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>152577</v>
+        <v>151393</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2758349666804719</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2249487780092722</v>
+        <v>0.2299931013645912</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3229782005956843</v>
+        <v>0.3204700733202961</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>125</v>
@@ -8811,19 +8811,19 @@
         <v>92191</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>77963</v>
+        <v>77525</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>107854</v>
+        <v>107895</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2400849524047448</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2030325215346187</v>
+        <v>0.2018920955390861</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2808768880792885</v>
+        <v>0.2809833810782837</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>234</v>
@@ -8832,19 +8832,19 @@
         <v>222497</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>196100</v>
+        <v>196532</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>250325</v>
+        <v>250504</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2598053920486217</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2289812945751445</v>
+        <v>0.2294859195333086</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2922992721052106</v>
+        <v>0.2925080868746823</v>
       </c>
     </row>
     <row r="38">
@@ -8861,19 +8861,19 @@
         <v>154432</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3269047081121942</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>144</v>
@@ -8882,19 +8882,19 @@
         <v>114811</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>269</v>
@@ -8903,19 +8903,19 @@
         <v>269243</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3143896371123066</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="39">
